--- a/data/trans_dic/P78C10_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P78C10_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>61,1%</t>
+          <t>46,95%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,73%</t>
+          <t>67,98%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,0; 100,0</t>
+          <t>82,18; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,46; 91,27</t>
+          <t>8,74; 86,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,89; 94,6</t>
+          <t>29,36; 93,51</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,92%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,33%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>75,45%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,11; 95,11</t>
+          <t>42,33; 94,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,21; 98,83</t>
+          <t>48,31; 98,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,04; 92,13</t>
+          <t>51,9; 91,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,82%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>83,97%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69,0; 97,17</t>
+          <t>68,55; 96,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>63,35; 92,64</t>
+          <t>61,55; 92,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>70,99; 92,58</t>
+          <t>70,45; 92,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,85%</t>
+          <t>73,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>81,04%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,21; 88,24</t>
+          <t>53,91; 87,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,03; 96,99</t>
+          <t>75,45; 96,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69,58; 91,18</t>
+          <t>67,55; 90,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,75%</t>
+          <t>79,24%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>79,97%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,97; 93,4</t>
+          <t>62,72; 92,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>65,55; 90,05</t>
+          <t>64,45; 89,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,81; 89,15</t>
+          <t>68,11; 88,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>89,4%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,22; 100,0</t>
+          <t>58,45; 100,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,55; 98,48</t>
+          <t>75,47; 97,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,78; 97,46</t>
+          <t>76,87; 96,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>97,29%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,79; 89,56</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>77,43; 90,07</t>
+          <t>86,5; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,47; 88,0</t>
+          <t>92,14; 100,0</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81,83%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>82,2%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>82,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>72,44; 88,46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>70,82; 88,33</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>74,41; 86,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
